--- a/VoteEase/wwwroot/Documents/VoteEase_Members_Workbook.xlsx
+++ b/VoteEase/wwwroot/Documents/VoteEase_Members_Workbook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Excel Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\VoteEase\VoteEase\wwwroot\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,10 +29,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Email Address</t>
+    <t>Phone Number</t>
   </si>
   <si>
-    <t>IsAccredited</t>
+    <t>Group Name</t>
   </si>
 </sst>
 </file>
@@ -353,7 +353,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/VoteEase/wwwroot/Documents/VoteEase_Members_Workbook.xlsx
+++ b/VoteEase/wwwroot/Documents/VoteEase_Members_Workbook.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -33,6 +33,36 @@
   </si>
   <si>
     <t>Group Name</t>
+  </si>
+  <si>
+    <t>Mr. Chukwudi Okafor</t>
+  </si>
+  <si>
+    <t>Group 4</t>
+  </si>
+  <si>
+    <t>Mr. Ohaha Ohuhu</t>
+  </si>
+  <si>
+    <t>Group6</t>
+  </si>
+  <si>
+    <t>Mommy June Susana</t>
+  </si>
+  <si>
+    <t>Group3</t>
+  </si>
+  <si>
+    <t>Mrs. Happiness Nnene</t>
+  </si>
+  <si>
+    <t>Group4</t>
+  </si>
+  <si>
+    <t>Bro. Dikachi Ossi</t>
+  </si>
+  <si>
+    <t>Group 1</t>
   </si>
 </sst>
 </file>
@@ -350,13 +380,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -369,6 +403,61 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>8127362623</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>9085878444</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>8172663977</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>7080907022</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>8098483722</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
